--- a/medicine/Médecine vétérinaire/Digestibilité/Digestibilité.xlsx
+++ b/medicine/Médecine vétérinaire/Digestibilité/Digestibilité.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Digestibilit%C3%A9</t>
+          <t>Digestibilité</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En alimentation animale, la digestibilité est un critère qui définit le degré auquel une matière organique est digérée par un animal.
 On distingue la digestibilité réelle de la digestibilité apparente.
@@ -502,7 +514,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Digestibilit%C3%A9</t>
+          <t>Digestibilité</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -520,7 +532,9 @@
           <t>Facteurs de variation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La digestibilité est plus forte pour les constituants cellulaires, moins pour les parois des cellules végétales (qui constituent la cellulose brute, taux de CB figurant sur les étiquettes d'aliments).
 Chez les ruminants, la digestibilité des parois avoisine 80 à 90 %, cela est dû aux phénomènes de fermentation dans le rumen, qui permettent, grâce à la flore cellulolytique de digérer la cellulose.
@@ -538,7 +552,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Digestibilit%C3%A9</t>
+          <t>Digestibilité</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -556,7 +570,9 @@
           <t>Mesure</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La digestibilité d'un aliment détermine sa valeur énergétique. On peut la prévoir en faisant des expérimentations in vivo en mettant un « mouton standard » (un mâle de race Texel de 90 kg) dans une cage de digestibilité (on pèse l'aliment distribué, les refus pour obtenir la part ingérée, puis les fèces pour connaître la fraction digérée). Il existe une méthode in-sacco, on plonge un petit sac contenant un aliment à tester dans le rumen d'une vache fistulée (un hublot permet d'accéder à son rumen).
 Sinon, on a recours aux équations de prévision en fonction du taux de cellulose brute ou de l'ADF (acid detergent fiber, ou fibres insolubles dans un détergent acide).
